--- a/hardware/LV BMS/Project Outputs for LV BMS/BOM.xlsx
+++ b/hardware/LV BMS/Project Outputs for LV BMS/BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Will\Documents\GitHub\LV-BMS\hardware\LV BMS\Project Outputs for LV BMS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juppy\Documents\GitHub\LV-BMS\hardware\LV BMS\Project Outputs for LV BMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56DC8DF2-7EF6-4B2F-8C88-28AA76B71ED0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED9978D-3B76-4C10-BE5C-2EC7F9666662}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="675" windowWidth="14325" windowHeight="11385" xr2:uid="{5D226732-425F-4EAF-8F13-30F678079D9D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5D226732-425F-4EAF-8F13-30F678079D9D}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>Comment</t>
   </si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>FP-UFQFPN32-A0B8-MFG</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -513,11 +516,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,6 +541,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -846,18 +863,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="19.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -899,7 +919,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -922,7 +942,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -945,7 +965,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
@@ -968,7 +988,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -991,7 +1011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -1014,7 +1034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1035,7 +1055,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>33</v>
       </c>
@@ -1058,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1081,7 +1101,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>40</v>
       </c>
@@ -1102,7 +1122,7 @@
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>44</v>
       </c>
@@ -1121,7 +1141,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>47</v>
       </c>
@@ -1140,7 +1160,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -1159,7 +1179,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>54</v>
       </c>
@@ -1182,7 +1202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>59</v>
       </c>
@@ -1203,7 +1223,7 @@
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>63</v>
       </c>
@@ -1224,7 +1244,7 @@
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>66</v>
       </c>
@@ -1243,7 +1263,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>70</v>
       </c>
@@ -1262,7 +1282,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>74</v>
       </c>
@@ -1281,7 +1301,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1302,7 +1322,7 @@
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>81</v>
       </c>
@@ -1323,7 +1343,7 @@
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>86</v>
       </c>
@@ -1342,7 +1362,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>90</v>
       </c>
@@ -1365,7 +1385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>95</v>
       </c>
@@ -1387,8 +1407,11 @@
       <c r="G25" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H25" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>99</v>
       </c>
@@ -1410,8 +1433,11 @@
       <c r="G26" s="3" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="H26" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>103</v>
       </c>
@@ -1433,8 +1459,11 @@
       <c r="G27" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H27" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
@@ -1456,8 +1485,11 @@
       <c r="G28" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H28" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>111</v>
       </c>
@@ -1479,8 +1511,11 @@
       <c r="G29" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H29" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>115</v>
       </c>
@@ -1502,8 +1537,11 @@
       <c r="G30" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H30" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>118</v>
       </c>
@@ -1525,8 +1563,11 @@
       <c r="G31" s="3" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H31" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>121</v>
       </c>
@@ -1547,7 +1588,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>125</v>
       </c>
@@ -1566,7 +1607,7 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>128</v>
       </c>
@@ -1587,7 +1628,7 @@
       </c>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>133</v>
       </c>
@@ -1606,7 +1647,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>137</v>
       </c>
